--- a/Boeing 717-200_n1.xlsx
+++ b/Boeing 717-200_n1.xlsx
@@ -1297,11 +1297,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="160393856"/>
-        <c:axId val="160404608"/>
+        <c:axId val="121154176"/>
+        <c:axId val="130920832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160393856"/>
+        <c:axId val="121154176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,14 +1339,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160404608"/>
+        <c:crossAx val="130920832"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160404608"/>
+        <c:axId val="130920832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160393856"/>
+        <c:crossAx val="121154176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,8 +1399,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.22204806687565309"/>
           <c:y val="0.27529777220103524"/>
-          <c:w val="0.12729014280738424"/>
-          <c:h val="9.8725495033801208E-2"/>
+          <c:w val="0.12729014280738427"/>
+          <c:h val="9.8725495033801236E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1419,7 +1419,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1815,11 +1815,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="160420992"/>
-        <c:axId val="160422912"/>
+        <c:axId val="119866496"/>
+        <c:axId val="119868416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160420992"/>
+        <c:axId val="119866496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,14 +1857,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160422912"/>
+        <c:crossAx val="119868416"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160422912"/>
+        <c:axId val="119868416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1910,7 +1910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160420992"/>
+        <c:crossAx val="119866496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1919,7 +1919,1363 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Boeing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 717-200 Non-Coughing Risk Model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N+1 Risk</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boeing 717-200'!$K$2:$K$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9230769230769235E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15517241379310345</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20322580645161289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.24545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31621621621621621</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33157894736842103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.36923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43902439024390244</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.47142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.50232558139534889</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53181818181818175</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.58695652173913049</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.61276595744680851</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.63750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.6612244897959183</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.70588235294117652</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.72692307692307689</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.74716981132075477</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.76666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.78545454545454552</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.8035714285714286</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.83684210526315794</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.86896551724137927</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97377049180327868</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0161290322580645</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.096875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.1353846153846154</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1727272727272728</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.208955223880597</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2441176470588236</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2782608695652173</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3242857142857143</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3690140845070422</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4547945205479453</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4959459459459459</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.536</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5868421052631578</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7316455696202533</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8658536585365855</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9084337349397591</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9905882352941175</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.0302325581395348</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0793103448275865</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.127272727272727</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1741573033707864</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2648351648351648</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3086956521739133</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.3516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.3936170212765959</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.4347368421052633</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5144329896907216</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.5530612244897957</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.5909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.6280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6732673267326734</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.7176470588235291</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.7786407766990289</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.8384615384615381</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.9057142857142861</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.9716981132075473</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.0364485981308409</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1623853211009174</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.2236363636363636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Optimal Risk</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boeing 717-200'!$L$2:$L$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9230769230769235E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15517241379310345</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20322580645161289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.24545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31621621621621621</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33157894736842103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.37317073170731707</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.38571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.39767441860465119</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.40909090909090912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43043478260869567</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.44042553191489359</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47755102040816322</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54705882352941171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.58846153846153848</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6283018867924528</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.70363636363636373</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.73928571428571421</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77368421052631586</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.80689655172413788</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83898305084745761</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.94354838709677424</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0265625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.066153846153846</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1045454545454547</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1417910447761195</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.177941176470588</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2130434782608697</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2471428571428571</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2802816901408451</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3684931506849316</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4108108108108108</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4921052631578948</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5807692307692307</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6291139240506327</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.711111111111111</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7451219512195122</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7891566265060241</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8635294117647059</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.894186046511628</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9344827586206899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.9636363636363638</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0022471910112358</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1130434782608698</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1677419354838707</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.2212765957446812</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.2831578947368421</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.34375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4030927835051545</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4612244897959181</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.5181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6376237623762373</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.7699029126213595</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.8384615384615381</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.9057142857142861</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.9716981132075473</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.0364485981308409</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1623853211009174</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.2236363636363636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="125864960"/>
+        <c:axId val="125912192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="125864960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Number of Assigned</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> Seats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125912192"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125912192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Risk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125864960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22204806687565309"/>
+          <c:y val="0.27529777220103524"/>
+          <c:w val="0.12729014280738438"/>
+          <c:h val="9.8725495033801305E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Boeing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 717-200</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> N+1 vs Optimal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Boeing 717-200'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relative Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boeing 717-200'!$M$2:$M$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3636363636363638</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3913043478260871</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2903225806451615</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2352941176470587</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1891891891891893</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1162790697674418</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0869565217391306</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0816326530612244</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0727272727272728</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0689655172413792</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.081967213114754</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0724637681159419</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0684931506849316</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.0649350649350651</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0617283950617282</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0588235294117645</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.056179775280899</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.053763440860215</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0618556701030928</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0693069306930691</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0660377358490565</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0630630630630631</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0603448275862069</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0578512396694213</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0634920634920635</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0656934306569343</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0629370629370631</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0675675675675675</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0649350649350651</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0691823899371069</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0705882352941178</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0681818181818181</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0718232044198894</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0748663101604279</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0858585858585859</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0882352941176472</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0904761904761904</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0848214285714286</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0775862068965516</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0663900414937759</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.056</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0463320463320465</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0373134328358209</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0288808664259927</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.020979020979021</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0135135135135136</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0065359477124183</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0031545741324919</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="112646016"/>
+        <c:axId val="119205888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="112646016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Number of Assigned</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> Seats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119205888"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119205888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Relative </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Risk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112646016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1929,16 +3285,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1959,16 +3315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>582979</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>346759</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>12172</xdr:rowOff>
+      <xdr:rowOff>50272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>537259</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>301039</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>108462</xdr:rowOff>
+      <xdr:rowOff>146562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1982,6 +3338,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>50570</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2275,15 +3691,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AK54" sqref="AK54"/>
+    <sheetView tabSelected="1" topLeftCell="K49" workbookViewId="0">
+      <selection activeCell="AN181" sqref="AN181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +3722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2330,8 +3746,20 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <f>E2/A2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>I2/A2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>IFERROR(K2/L2, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2367,8 +3795,20 @@
         <f>I3 - I2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="3">E3/A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="4">I3/A3</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="5">IFERROR(K3/L3, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2390,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4" si="3">E4 - E3</f>
+        <f t="shared" ref="G4" si="6">E4 - E3</f>
         <v>0</v>
       </c>
       <c r="H4">
@@ -2401,11 +3841,23 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="4">I4 - I3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <f t="shared" ref="J4:J67" si="7">I4 - I3</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2427,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5" si="5">E5 - E4</f>
+        <f t="shared" ref="G5" si="8">E5 - E4</f>
         <v>0</v>
       </c>
       <c r="H5">
@@ -2438,11 +3890,23 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2464,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6" si="6">E6 - E5</f>
+        <f t="shared" ref="G6" si="9">E6 - E5</f>
         <v>0</v>
       </c>
       <c r="H6">
@@ -2475,11 +3939,23 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2501,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7" si="7">E7 - E6</f>
+        <f t="shared" ref="G7" si="10">E7 - E6</f>
         <v>0</v>
       </c>
       <c r="H7">
@@ -2512,11 +3988,23 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2538,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8" si="8">E8 - E7</f>
+        <f t="shared" ref="G8" si="11">E8 - E7</f>
         <v>0</v>
       </c>
       <c r="H8">
@@ -2549,11 +4037,23 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2575,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9" si="9">E9 - E8</f>
+        <f t="shared" ref="G9" si="12">E9 - E8</f>
         <v>0</v>
       </c>
       <c r="H9">
@@ -2586,11 +4086,23 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2612,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10" si="10">E10 - E9</f>
+        <f t="shared" ref="G10" si="13">E10 - E9</f>
         <v>0</v>
       </c>
       <c r="H10">
@@ -2623,11 +4135,23 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2649,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11" si="11">E11 - E10</f>
+        <f t="shared" ref="G11" si="14">E11 - E10</f>
         <v>0</v>
       </c>
       <c r="H11">
@@ -2660,11 +4184,23 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2686,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12" si="12">E12 - E11</f>
+        <f t="shared" ref="G12" si="15">E12 - E11</f>
         <v>0</v>
       </c>
       <c r="H12">
@@ -2697,11 +4233,23 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2723,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13" si="13">E13 - E12</f>
+        <f t="shared" ref="G13" si="16">E13 - E12</f>
         <v>0</v>
       </c>
       <c r="H13">
@@ -2734,11 +4282,23 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2760,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14" si="14">E14 - E13</f>
+        <f t="shared" ref="G14" si="17">E14 - E13</f>
         <v>0</v>
       </c>
       <c r="H14">
@@ -2771,11 +4331,23 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2797,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15" si="15">E15 - E14</f>
+        <f t="shared" ref="G15" si="18">E15 - E14</f>
         <v>0</v>
       </c>
       <c r="H15">
@@ -2808,11 +4380,23 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2834,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16" si="16">E16 - E15</f>
+        <f t="shared" ref="G16" si="19">E16 - E15</f>
         <v>0</v>
       </c>
       <c r="H16">
@@ -2845,11 +4429,23 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2871,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17" si="17">E17 - E16</f>
+        <f t="shared" ref="G17" si="20">E17 - E16</f>
         <v>0</v>
       </c>
       <c r="H17">
@@ -2882,11 +4478,23 @@
         <v>0</v>
       </c>
       <c r="J17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2908,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18" si="18">E18 - E17</f>
+        <f t="shared" ref="G18" si="21">E18 - E17</f>
         <v>0</v>
       </c>
       <c r="H18">
@@ -2919,11 +4527,23 @@
         <v>0</v>
       </c>
       <c r="J18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2945,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19" si="19">E19 - E18</f>
+        <f t="shared" ref="G19" si="22">E19 - E18</f>
         <v>0</v>
       </c>
       <c r="H19">
@@ -2956,11 +4576,23 @@
         <v>0</v>
       </c>
       <c r="J19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2982,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20" si="20">E20 - E19</f>
+        <f t="shared" ref="G20" si="23">E20 - E19</f>
         <v>0</v>
       </c>
       <c r="H20">
@@ -2993,11 +4625,23 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3019,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21" si="21">E21 - E20</f>
+        <f t="shared" ref="G21" si="24">E21 - E20</f>
         <v>0</v>
       </c>
       <c r="H21">
@@ -3030,11 +4674,23 @@
         <v>0</v>
       </c>
       <c r="J21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3056,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22" si="22">E22 - E21</f>
+        <f t="shared" ref="G22" si="25">E22 - E21</f>
         <v>0</v>
       </c>
       <c r="H22">
@@ -3067,11 +4723,23 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3093,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23" si="23">E23 - E22</f>
+        <f t="shared" ref="G23" si="26">E23 - E22</f>
         <v>0</v>
       </c>
       <c r="H23">
@@ -3104,11 +4772,23 @@
         <v>0</v>
       </c>
       <c r="J23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3130,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24" si="24">E24 - E23</f>
+        <f t="shared" ref="G24" si="27">E24 - E23</f>
         <v>0</v>
       </c>
       <c r="H24">
@@ -3141,11 +4821,23 @@
         <v>0</v>
       </c>
       <c r="J24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3167,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25" si="25">E25 - E24</f>
+        <f t="shared" ref="G25" si="28">E25 - E24</f>
         <v>0</v>
       </c>
       <c r="H25">
@@ -3178,11 +4870,23 @@
         <v>0</v>
       </c>
       <c r="J25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3204,7 +4908,7 @@
         <v>180</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="26">E26 - E25</f>
+        <f t="shared" ref="G26" si="29">E26 - E25</f>
         <v>0.9</v>
       </c>
       <c r="H26">
@@ -3215,11 +4919,23 @@
         <v>0.9</v>
       </c>
       <c r="J26">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3241,7 +4957,7 @@
         <v>180</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27" si="27">E27 - E26</f>
+        <f t="shared" ref="G27" si="30">E27 - E26</f>
         <v>0.9</v>
       </c>
       <c r="H27">
@@ -3252,11 +4968,23 @@
         <v>1.8</v>
       </c>
       <c r="J27">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>6.9230769230769235E-2</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>6.9230769230769235E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3278,7 +5006,7 @@
         <v>180</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="28">E28 - E27</f>
+        <f t="shared" ref="G28" si="31">E28 - E27</f>
         <v>0.90000000000000013</v>
       </c>
       <c r="H28">
@@ -3289,11 +5017,23 @@
         <v>2.7</v>
       </c>
       <c r="J28">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="4"/>
-        <v>0.90000000000000013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3315,7 +5055,7 @@
         <v>180</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29" si="29">E29 - E28</f>
+        <f t="shared" ref="G29" si="32">E29 - E28</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="H29">
@@ -3326,11 +5066,23 @@
         <v>3.6</v>
       </c>
       <c r="J29">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="4"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3352,7 +5104,7 @@
         <v>180</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30" si="30">E30 - E29</f>
+        <f t="shared" ref="G30" si="33">E30 - E29</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="H30">
@@ -3363,11 +5115,23 @@
         <v>4.5</v>
       </c>
       <c r="J30">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>0.15517241379310345</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="4"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>0.15517241379310345</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3389,7 +5153,7 @@
         <v>180</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31" si="31">E31 - E30</f>
+        <f t="shared" ref="G31" si="34">E31 - E30</f>
         <v>0.90000000000000036</v>
       </c>
       <c r="H31">
@@ -3400,11 +5164,23 @@
         <v>5.4</v>
       </c>
       <c r="J31">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="4"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3426,7 +5202,7 @@
         <v>180</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32" si="32">E32 - E31</f>
+        <f t="shared" ref="G32" si="35">E32 - E31</f>
         <v>0.89999999999999947</v>
       </c>
       <c r="H32">
@@ -3437,11 +5213,23 @@
         <v>6.3</v>
       </c>
       <c r="J32">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999947</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0.20322580645161289</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="4"/>
-        <v>0.89999999999999947</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>0.20322580645161289</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3463,7 +5251,7 @@
         <v>180</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33" si="33">E33 - E32</f>
+        <f t="shared" ref="G33" si="36">E33 - E32</f>
         <v>0.90000000000000036</v>
       </c>
       <c r="H33">
@@ -3474,11 +5262,23 @@
         <v>7.2</v>
       </c>
       <c r="J33">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="4"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3500,7 +5300,7 @@
         <v>180</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="34">E34 - E33</f>
+        <f t="shared" ref="G34" si="37">E34 - E33</f>
         <v>0.89999999999999947</v>
       </c>
       <c r="H34">
@@ -3511,11 +5311,23 @@
         <v>8.1</v>
       </c>
       <c r="J34">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999947</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="4"/>
-        <v>0.89999999999999947</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3533,11 +5345,11 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:G66" si="35">D35 - D34</f>
+        <f t="shared" ref="F35:G66" si="38">D35 - D34</f>
         <v>180</v>
       </c>
       <c r="G35">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="H35">
@@ -3548,11 +5360,23 @@
         <v>9</v>
       </c>
       <c r="J35">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="4"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3570,11 +5394,11 @@
         <v>9.9</v>
       </c>
       <c r="F36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>180</v>
       </c>
       <c r="G36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="H36">
@@ -3585,11 +5409,23 @@
         <v>9.9</v>
       </c>
       <c r="J36">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>0.28285714285714286</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="4"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>0.28285714285714286</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3607,11 +5443,11 @@
         <v>10.8</v>
       </c>
       <c r="F37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>180</v>
       </c>
       <c r="G37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="H37">
@@ -3622,11 +5458,23 @@
         <v>10.8</v>
       </c>
       <c r="J37">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="4"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3644,11 +5492,11 @@
         <v>11.7</v>
       </c>
       <c r="F38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>180</v>
       </c>
       <c r="G38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.89999999999999858</v>
       </c>
       <c r="H38">
@@ -3659,11 +5507,23 @@
         <v>11.7</v>
       </c>
       <c r="J38">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.31621621621621621</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="4"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>0.31621621621621621</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3681,11 +5541,11 @@
         <v>12.6</v>
       </c>
       <c r="F39">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>180</v>
       </c>
       <c r="G39">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="H39">
@@ -3696,11 +5556,23 @@
         <v>12.6</v>
       </c>
       <c r="J39">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.33157894736842103</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="4"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>0.33157894736842103</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3718,11 +5590,11 @@
         <v>14.4</v>
       </c>
       <c r="F40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="H40">
@@ -3733,11 +5605,23 @@
         <v>13.5</v>
       </c>
       <c r="J40">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.36923076923076925</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="4"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3755,11 +5639,11 @@
         <v>16.2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7999999999999989</v>
       </c>
       <c r="H41">
@@ -3770,11 +5654,23 @@
         <v>14.4</v>
       </c>
       <c r="J41">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.40499999999999997</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="4"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>0.36</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3792,11 +5688,11 @@
         <v>18</v>
       </c>
       <c r="F42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="H42">
@@ -3807,11 +5703,23 @@
         <v>15.3</v>
       </c>
       <c r="J42">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>0.43902439024390244</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="4"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>0.37317073170731707</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>1.1764705882352942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3829,11 +5737,11 @@
         <v>19.8</v>
       </c>
       <c r="F43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="H43">
@@ -3844,11 +5752,23 @@
         <v>16.2</v>
       </c>
       <c r="J43">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>0.47142857142857142</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="4"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>0.38571428571428568</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3866,11 +5786,11 @@
         <v>21.6</v>
       </c>
       <c r="F44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="H44">
@@ -3881,11 +5801,23 @@
         <v>17.100000000000001</v>
       </c>
       <c r="J44">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>0.50232558139534889</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="4"/>
-        <v>0.90000000000000213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>0.39767441860465119</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>1.263157894736842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3903,11 +5835,11 @@
         <v>23.4</v>
       </c>
       <c r="F45">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G45">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="H45">
@@ -3918,11 +5850,23 @@
         <v>18</v>
       </c>
       <c r="J45">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>0.53181818181818175</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="4"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3940,11 +5884,11 @@
         <v>25.2</v>
       </c>
       <c r="F46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="H46">
@@ -3955,11 +5899,23 @@
         <v>18.899999999999999</v>
       </c>
       <c r="J46">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="4"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>0.42</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3977,11 +5933,11 @@
         <v>27</v>
       </c>
       <c r="F47">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G47">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="H47">
@@ -3992,11 +5948,23 @@
         <v>19.8</v>
       </c>
       <c r="J47">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>0.58695652173913049</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="4"/>
-        <v>0.90000000000000213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>0.43043478260869567</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>1.3636363636363638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4014,11 +5982,11 @@
         <v>28.8</v>
       </c>
       <c r="F48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="H48">
@@ -4029,11 +5997,23 @@
         <v>20.7</v>
       </c>
       <c r="J48">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>0.61276595744680851</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="4"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>0.44042553191489359</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>1.3913043478260871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4051,11 +6031,11 @@
         <v>30.6</v>
       </c>
       <c r="F49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000007</v>
       </c>
       <c r="H49">
@@ -4066,11 +6046,23 @@
         <v>21.6</v>
       </c>
       <c r="J49">
+        <f t="shared" si="7"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="4"/>
-        <v>0.90000000000000213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>0.45</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4088,11 +6080,11 @@
         <v>32.4</v>
       </c>
       <c r="F50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="H50">
@@ -4103,11 +6095,23 @@
         <v>23.4</v>
       </c>
       <c r="J50">
+        <f t="shared" si="7"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>0.6612244897959183</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="4"/>
-        <v>1.7999999999999972</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>0.47755102040816322</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4125,11 +6129,11 @@
         <v>34.200000000000003</v>
       </c>
       <c r="F51">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G51">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="H51">
@@ -4140,11 +6144,23 @@
         <v>25.2</v>
       </c>
       <c r="J51">
+        <f t="shared" si="7"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="4"/>
-        <v>1.8000000000000007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>0.504</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>1.3571428571428572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4162,11 +6178,11 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G52">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="H52">
@@ -4177,11 +6193,23 @@
         <v>27.9</v>
       </c>
       <c r="J52">
+        <f t="shared" si="7"/>
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="4"/>
-        <v>2.6999999999999993</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>0.54705882352941171</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>1.2903225806451615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4199,11 +6227,11 @@
         <v>37.799999999999997</v>
       </c>
       <c r="F53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="H53">
@@ -4214,11 +6242,23 @@
         <v>30.6</v>
       </c>
       <c r="J53">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>0.72692307692307689</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="4"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>0.58846153846153848</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>1.2352941176470587</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4236,11 +6276,11 @@
         <v>39.6</v>
       </c>
       <c r="F54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="H54">
@@ -4251,11 +6291,23 @@
         <v>33.299999999999997</v>
       </c>
       <c r="J54">
+        <f t="shared" si="7"/>
+        <v>2.6999999999999957</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>0.74716981132075477</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="4"/>
-        <v>2.6999999999999957</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>0.6283018867924528</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>1.1891891891891893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4273,11 +6325,11 @@
         <v>41.4</v>
       </c>
       <c r="F55">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G55">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="H55">
@@ -4288,11 +6340,23 @@
         <v>36</v>
       </c>
       <c r="J55">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="4"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4310,11 +6374,11 @@
         <v>43.2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G56">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8000000000000043</v>
       </c>
       <c r="H56">
@@ -4325,11 +6389,23 @@
         <v>38.700000000000003</v>
       </c>
       <c r="J56">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>0.78545454545454552</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="4"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>0.70363636363636373</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>1.1162790697674418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4347,11 +6423,11 @@
         <v>45</v>
       </c>
       <c r="F57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>360</v>
       </c>
       <c r="G57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="H57">
@@ -4362,11 +6438,23 @@
         <v>41.4</v>
       </c>
       <c r="J57">
+        <f t="shared" si="7"/>
+        <v>2.6999999999999957</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="4"/>
-        <v>2.6999999999999957</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>0.73928571428571421</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4384,11 +6472,11 @@
         <v>47.7</v>
       </c>
       <c r="F58">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>540</v>
       </c>
       <c r="G58">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.7000000000000028</v>
       </c>
       <c r="H58">
@@ -4399,11 +6487,23 @@
         <v>44.1</v>
       </c>
       <c r="J58">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>0.83684210526315794</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="4"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>0.77368421052631586</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>1.0816326530612244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4421,11 +6521,11 @@
         <v>50.4</v>
       </c>
       <c r="F59">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>540</v>
       </c>
       <c r="G59">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.6999999999999957</v>
       </c>
       <c r="H59">
@@ -4436,11 +6536,23 @@
         <v>46.8</v>
       </c>
       <c r="J59">
+        <f t="shared" si="7"/>
+        <v>2.6999999999999957</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>0.86896551724137927</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="4"/>
-        <v>2.6999999999999957</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>0.80689655172413788</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4458,11 +6570,11 @@
         <v>53.1</v>
       </c>
       <c r="F60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>540</v>
       </c>
       <c r="G60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.7000000000000028</v>
       </c>
       <c r="H60">
@@ -4473,11 +6585,23 @@
         <v>49.5</v>
       </c>
       <c r="J60">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="4"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>0.83898305084745761</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="5"/>
+        <v>1.0727272727272728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4495,11 +6619,11 @@
         <v>55.8</v>
       </c>
       <c r="F61">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>540</v>
       </c>
       <c r="G61">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.6999999999999957</v>
       </c>
       <c r="H61">
@@ -4510,11 +6634,23 @@
         <v>52.2</v>
       </c>
       <c r="J61">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="4"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>0.87</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="5"/>
+        <v>1.0689655172413792</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4532,11 +6668,11 @@
         <v>59.4</v>
       </c>
       <c r="F62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>720</v>
       </c>
       <c r="G62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.6000000000000014</v>
       </c>
       <c r="H62">
@@ -4547,11 +6683,23 @@
         <v>54.9</v>
       </c>
       <c r="J62">
+        <f t="shared" si="7"/>
+        <v>2.6999999999999957</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>0.97377049180327868</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="4"/>
-        <v>2.6999999999999957</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>0.9</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>1.081967213114754</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4569,11 +6717,11 @@
         <v>63</v>
       </c>
       <c r="F63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>720</v>
       </c>
       <c r="G63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.6000000000000014</v>
       </c>
       <c r="H63">
@@ -4584,11 +6732,23 @@
         <v>58.5</v>
       </c>
       <c r="J63">
+        <f t="shared" si="7"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>1.0161290322580645</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="4"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>0.94354838709677424</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>1.0769230769230769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4606,11 +6766,11 @@
         <v>66.599999999999994</v>
       </c>
       <c r="F64">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>720</v>
       </c>
       <c r="G64">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="H64">
@@ -4621,11 +6781,23 @@
         <v>62.1</v>
       </c>
       <c r="J64">
+        <f t="shared" si="7"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>1.0571428571428572</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="4"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>1.0724637681159419</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4643,11 +6815,11 @@
         <v>70.2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>720</v>
       </c>
       <c r="G65">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.6000000000000085</v>
       </c>
       <c r="H65">
@@ -4658,11 +6830,23 @@
         <v>65.7</v>
       </c>
       <c r="J65">
+        <f t="shared" si="7"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>1.096875</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="4"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>1.0265625</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>1.0684931506849316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4680,11 +6864,11 @@
         <v>73.8</v>
       </c>
       <c r="F66">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>720</v>
       </c>
       <c r="G66">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="H66">
@@ -4695,11 +6879,23 @@
         <v>69.3</v>
       </c>
       <c r="J66">
+        <f t="shared" si="7"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>1.1353846153846154</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="4"/>
-        <v>3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>1.066153846153846</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>1.0649350649350651</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4713,30 +6909,42 @@
         <v>15480</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E111" si="36">D67/200</f>
+        <f t="shared" ref="E67:E111" si="39">D67/200</f>
         <v>77.400000000000006</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:G98" si="37">D67 - D66</f>
+        <f t="shared" ref="F67:G98" si="40">D67 - D66</f>
         <v>720</v>
       </c>
       <c r="G67">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3.6000000000000085</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H111" si="38">IFERROR(E67/I67, 1)</f>
+        <f t="shared" ref="H67:H111" si="41">IFERROR(E67/I67, 1)</f>
         <v>1.0617283950617284</v>
       </c>
       <c r="I67">
         <v>72.900000000000006</v>
       </c>
       <c r="J67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.6000000000000085</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <f t="shared" ref="K67:K111" si="42">E67/A67</f>
+        <v>1.1727272727272728</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L111" si="43">I67/A67</f>
+        <v>1.1045454545454547</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M111" si="44">IFERROR(K67/L67, 1)</f>
+        <v>1.0617283950617282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4750,30 +6958,42 @@
         <v>16200</v>
       </c>
       <c r="E68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>81</v>
       </c>
       <c r="F68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>720</v>
       </c>
       <c r="G68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="H68">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0588235294117647</v>
       </c>
       <c r="I68">
         <v>76.5</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J111" si="39">I68 - I67</f>
+        <f t="shared" ref="J68:J111" si="45">I68 - I67</f>
         <v>3.5999999999999943</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <f t="shared" si="42"/>
+        <v>1.208955223880597</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="43"/>
+        <v>1.1417910447761195</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="44"/>
+        <v>1.0588235294117645</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4787,30 +7007,42 @@
         <v>16920</v>
       </c>
       <c r="E69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>84.6</v>
       </c>
       <c r="F69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>720</v>
       </c>
       <c r="G69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3.5999999999999943</v>
       </c>
       <c r="H69">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0561797752808988</v>
       </c>
       <c r="I69">
         <v>80.099999999999994</v>
       </c>
       <c r="J69">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>3.5999999999999943</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <f t="shared" si="42"/>
+        <v>1.2441176470588236</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="43"/>
+        <v>1.177941176470588</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="44"/>
+        <v>1.056179775280899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4824,30 +7056,42 @@
         <v>17640</v>
       </c>
       <c r="E70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>88.2</v>
       </c>
       <c r="F70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>720</v>
       </c>
       <c r="G70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3.6000000000000085</v>
       </c>
       <c r="H70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.053763440860215</v>
       </c>
       <c r="I70">
         <v>83.7</v>
       </c>
       <c r="J70">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>3.6000000000000085</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <f t="shared" si="42"/>
+        <v>1.2782608695652173</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="43"/>
+        <v>1.2130434782608697</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="44"/>
+        <v>1.053763440860215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4861,30 +7105,42 @@
         <v>18540</v>
       </c>
       <c r="E71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>92.7</v>
       </c>
       <c r="F71">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
       <c r="G71">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="H71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0618556701030928</v>
       </c>
       <c r="I71">
         <v>87.3</v>
       </c>
       <c r="J71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>3.5999999999999943</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <f t="shared" si="42"/>
+        <v>1.3242857142857143</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="43"/>
+        <v>1.2471428571428571</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="44"/>
+        <v>1.0618556701030928</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4898,30 +7154,42 @@
         <v>19440</v>
       </c>
       <c r="E72">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>97.2</v>
       </c>
       <c r="F72">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
       <c r="G72">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="H72">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0693069306930694</v>
       </c>
       <c r="I72">
         <v>90.9</v>
       </c>
       <c r="J72">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>3.6000000000000085</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <f t="shared" si="42"/>
+        <v>1.3690140845070422</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="43"/>
+        <v>1.2802816901408451</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="44"/>
+        <v>1.0693069306930691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4935,30 +7203,42 @@
         <v>20340</v>
       </c>
       <c r="E73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>101.7</v>
       </c>
       <c r="F73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
       <c r="G73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="H73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0660377358490565</v>
       </c>
       <c r="I73">
         <v>95.4</v>
       </c>
       <c r="J73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <f t="shared" si="42"/>
+        <v>1.4125000000000001</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="43"/>
+        <v>1.3250000000000002</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="44"/>
+        <v>1.0660377358490565</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4972,30 +7252,42 @@
         <v>21240</v>
       </c>
       <c r="E74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>106.2</v>
       </c>
       <c r="F74">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
       <c r="G74">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="H74">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0630630630630631</v>
       </c>
       <c r="I74">
         <v>99.9</v>
       </c>
       <c r="J74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <f t="shared" si="42"/>
+        <v>1.4547945205479453</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="43"/>
+        <v>1.3684931506849316</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="44"/>
+        <v>1.0630630630630631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5009,30 +7301,42 @@
         <v>22140</v>
       </c>
       <c r="E75">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>110.7</v>
       </c>
       <c r="F75">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
       <c r="G75">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="H75">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0603448275862069</v>
       </c>
       <c r="I75">
         <v>104.4</v>
       </c>
       <c r="J75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <f t="shared" si="42"/>
+        <v>1.4959459459459459</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="43"/>
+        <v>1.4108108108108108</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="44"/>
+        <v>1.0603448275862069</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5046,30 +7350,42 @@
         <v>23040</v>
       </c>
       <c r="E76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>115.2</v>
       </c>
       <c r="F76">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
       <c r="G76">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="H76">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0578512396694215</v>
       </c>
       <c r="I76">
         <v>108.9</v>
       </c>
       <c r="J76">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <f t="shared" si="42"/>
+        <v>1.536</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="43"/>
+        <v>1.4520000000000002</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="44"/>
+        <v>1.0578512396694213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5083,30 +7399,42 @@
         <v>24120</v>
       </c>
       <c r="E77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>120.6</v>
       </c>
       <c r="F77">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G77">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.3999999999999915</v>
       </c>
       <c r="H77">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0634920634920635</v>
       </c>
       <c r="I77">
         <v>113.4</v>
       </c>
       <c r="J77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <f t="shared" si="42"/>
+        <v>1.5868421052631578</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="43"/>
+        <v>1.4921052631578948</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="44"/>
+        <v>1.0634920634920635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5120,30 +7448,42 @@
         <v>25200</v>
       </c>
       <c r="E78">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>126</v>
       </c>
       <c r="F78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="H78">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0606060606060606</v>
       </c>
       <c r="I78">
         <v>118.8</v>
       </c>
       <c r="J78">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.3999999999999915</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <f t="shared" si="42"/>
+        <v>1.6363636363636365</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="43"/>
+        <v>1.5428571428571429</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="44"/>
+        <v>1.0606060606060606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5157,30 +7497,42 @@
         <v>26280</v>
       </c>
       <c r="E79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>131.4</v>
       </c>
       <c r="F79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="H79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0656934306569343</v>
       </c>
       <c r="I79">
         <v>123.3</v>
       </c>
       <c r="J79">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <f t="shared" si="42"/>
+        <v>1.6846153846153846</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="43"/>
+        <v>1.5807692307692307</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="44"/>
+        <v>1.0656934306569343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5194,30 +7546,42 @@
         <v>27360</v>
       </c>
       <c r="E80">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>136.80000000000001</v>
       </c>
       <c r="F80">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G80">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="H80">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0629370629370631</v>
       </c>
       <c r="I80">
         <v>128.69999999999999</v>
       </c>
       <c r="J80">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.3999999999999915</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <f t="shared" si="42"/>
+        <v>1.7316455696202533</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="43"/>
+        <v>1.6291139240506327</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="44"/>
+        <v>1.0629370629370631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5231,30 +7595,42 @@
         <v>28440</v>
       </c>
       <c r="E81">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>142.19999999999999</v>
       </c>
       <c r="F81">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G81">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.3999999999999773</v>
       </c>
       <c r="H81">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0675675675675675</v>
       </c>
       <c r="I81">
         <v>133.19999999999999</v>
       </c>
       <c r="J81">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <f t="shared" si="42"/>
+        <v>1.7774999999999999</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="43"/>
+        <v>1.6649999999999998</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="44"/>
+        <v>1.0675675675675675</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5268,30 +7644,42 @@
         <v>29520</v>
       </c>
       <c r="E82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>147.6</v>
       </c>
       <c r="F82">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G82">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="H82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0649350649350648</v>
       </c>
       <c r="I82">
         <v>138.6</v>
       </c>
       <c r="J82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <f t="shared" si="42"/>
+        <v>1.8222222222222222</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="43"/>
+        <v>1.711111111111111</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="44"/>
+        <v>1.0649350649350651</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5305,30 +7693,42 @@
         <v>30600</v>
       </c>
       <c r="E83">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>153</v>
       </c>
       <c r="F83">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G83">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="H83">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0691823899371069</v>
       </c>
       <c r="I83">
         <v>143.1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <f t="shared" si="42"/>
+        <v>1.8658536585365855</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="43"/>
+        <v>1.7451219512195122</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="44"/>
+        <v>1.0691823899371069</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5342,30 +7742,42 @@
         <v>31680</v>
       </c>
       <c r="E84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>158.4</v>
       </c>
       <c r="F84">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G84">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="H84">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="I84">
         <v>148.5</v>
       </c>
       <c r="J84">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <f t="shared" si="42"/>
+        <v>1.9084337349397591</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="43"/>
+        <v>1.7891566265060241</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="44"/>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5379,30 +7791,42 @@
         <v>32760</v>
       </c>
       <c r="E85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>163.80000000000001</v>
       </c>
       <c r="F85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="H85">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0705882352941176</v>
       </c>
       <c r="I85">
         <v>153</v>
       </c>
       <c r="J85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <f t="shared" si="42"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="43"/>
+        <v>1.8214285714285714</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="44"/>
+        <v>1.0705882352941178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5416,30 +7840,42 @@
         <v>33840</v>
       </c>
       <c r="E86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>169.2</v>
       </c>
       <c r="F86">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G86">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.3999999999999773</v>
       </c>
       <c r="H86">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0681818181818181</v>
       </c>
       <c r="I86">
         <v>158.4</v>
       </c>
       <c r="J86">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <f t="shared" si="42"/>
+        <v>1.9905882352941175</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="43"/>
+        <v>1.8635294117647059</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="44"/>
+        <v>1.0681818181818181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5453,30 +7889,42 @@
         <v>34920</v>
       </c>
       <c r="E87">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>174.6</v>
       </c>
       <c r="F87">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1080</v>
       </c>
       <c r="G87">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5.4000000000000057</v>
       </c>
       <c r="H87">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0718232044198894</v>
       </c>
       <c r="I87">
         <v>162.9</v>
       </c>
       <c r="J87">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <f t="shared" si="42"/>
+        <v>2.0302325581395348</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="43"/>
+        <v>1.894186046511628</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="44"/>
+        <v>1.0718232044198894</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5490,30 +7938,42 @@
         <v>36180</v>
       </c>
       <c r="E88">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>180.9</v>
       </c>
       <c r="F88">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G88">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.3000000000000114</v>
       </c>
       <c r="H88">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0748663101604277</v>
       </c>
       <c r="I88">
         <v>168.3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <f t="shared" si="42"/>
+        <v>2.0793103448275865</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="43"/>
+        <v>1.9344827586206899</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="44"/>
+        <v>1.0748663101604279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5527,30 +7987,42 @@
         <v>37440</v>
       </c>
       <c r="E89">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>187.2</v>
       </c>
       <c r="F89">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G89">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.2999999999999829</v>
       </c>
       <c r="H89">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="I89">
         <v>172.8</v>
       </c>
       <c r="J89">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <f t="shared" si="42"/>
+        <v>2.127272727272727</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="43"/>
+        <v>1.9636363636363638</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="44"/>
+        <v>1.083333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5564,30 +8036,42 @@
         <v>38700</v>
       </c>
       <c r="E90">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>193.5</v>
       </c>
       <c r="F90">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G90">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.3000000000000114</v>
       </c>
       <c r="H90">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0858585858585859</v>
       </c>
       <c r="I90">
         <v>178.2</v>
       </c>
       <c r="J90">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.3999999999999773</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <f t="shared" si="42"/>
+        <v>2.1741573033707864</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="43"/>
+        <v>2.0022471910112358</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="44"/>
+        <v>1.0858585858585859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5601,30 +8085,42 @@
         <v>39960</v>
       </c>
       <c r="E91">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>199.8</v>
       </c>
       <c r="F91">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G91">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.3000000000000114</v>
       </c>
       <c r="H91">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0882352941176472</v>
       </c>
       <c r="I91">
         <v>183.6</v>
       </c>
       <c r="J91">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <f t="shared" si="42"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="43"/>
+        <v>2.04</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="44"/>
+        <v>1.0882352941176472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5638,30 +8134,42 @@
         <v>41220</v>
       </c>
       <c r="E92">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>206.1</v>
       </c>
       <c r="F92">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G92">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.2999999999999829</v>
       </c>
       <c r="H92">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0904761904761904</v>
       </c>
       <c r="I92">
         <v>189</v>
       </c>
       <c r="J92">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <f t="shared" si="42"/>
+        <v>2.2648351648351648</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="43"/>
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="44"/>
+        <v>1.0904761904761904</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5675,30 +8183,42 @@
         <v>42480</v>
       </c>
       <c r="E93">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>212.4</v>
       </c>
       <c r="F93">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G93">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.3000000000000114</v>
       </c>
       <c r="H93">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0925925925925926</v>
       </c>
       <c r="I93">
         <v>194.4</v>
       </c>
       <c r="J93">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <f t="shared" si="42"/>
+        <v>2.3086956521739133</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="43"/>
+        <v>2.1130434782608698</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="44"/>
+        <v>1.0925925925925926</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5712,30 +8232,42 @@
         <v>43740</v>
       </c>
       <c r="E94">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>218.7</v>
       </c>
       <c r="F94">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G94">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.2999999999999829</v>
       </c>
       <c r="H94">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0848214285714286</v>
       </c>
       <c r="I94">
         <v>201.6</v>
       </c>
       <c r="J94">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>7.1999999999999886</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <f t="shared" si="42"/>
+        <v>2.3516129032258064</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="43"/>
+        <v>2.1677419354838707</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="44"/>
+        <v>1.0848214285714286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5749,30 +8281,42 @@
         <v>45000</v>
       </c>
       <c r="E95">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>225</v>
       </c>
       <c r="F95">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G95">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.3000000000000114</v>
       </c>
       <c r="H95">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0775862068965516</v>
       </c>
       <c r="I95">
         <v>208.8</v>
       </c>
       <c r="J95">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>7.2000000000000171</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <f t="shared" si="42"/>
+        <v>2.3936170212765959</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="43"/>
+        <v>2.2212765957446812</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="44"/>
+        <v>1.0775862068965516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5786,30 +8330,42 @@
         <v>46260</v>
       </c>
       <c r="E96">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>231.3</v>
       </c>
       <c r="F96">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G96">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.3000000000000114</v>
       </c>
       <c r="H96">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0663900414937759</v>
       </c>
       <c r="I96">
         <v>216.9</v>
       </c>
       <c r="J96">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>8.0999999999999943</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <f t="shared" si="42"/>
+        <v>2.4347368421052633</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="43"/>
+        <v>2.2831578947368421</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="44"/>
+        <v>1.0663900414937759</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5823,30 +8379,42 @@
         <v>47520</v>
       </c>
       <c r="E97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>237.6</v>
       </c>
       <c r="F97">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G97">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.2999999999999829</v>
       </c>
       <c r="H97">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.056</v>
       </c>
       <c r="I97">
         <v>225</v>
       </c>
       <c r="J97">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>8.0999999999999943</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <f t="shared" si="42"/>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="43"/>
+        <v>2.34375</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="44"/>
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5860,30 +8428,42 @@
         <v>48780</v>
       </c>
       <c r="E98">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>243.9</v>
       </c>
       <c r="F98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1260</v>
       </c>
       <c r="G98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6.3000000000000114</v>
       </c>
       <c r="H98">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0463320463320465</v>
       </c>
       <c r="I98">
         <v>233.1</v>
       </c>
       <c r="J98">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>8.0999999999999943</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <f t="shared" si="42"/>
+        <v>2.5144329896907216</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="43"/>
+        <v>2.4030927835051545</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="44"/>
+        <v>1.0463320463320465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5897,30 +8477,42 @@
         <v>50040</v>
       </c>
       <c r="E99">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>250.2</v>
       </c>
       <c r="F99">
-        <f t="shared" ref="F99:G111" si="40">D99 - D98</f>
+        <f t="shared" ref="F99:G111" si="46">D99 - D98</f>
         <v>1260</v>
       </c>
       <c r="G99">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6.2999999999999829</v>
       </c>
       <c r="H99">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0373134328358209</v>
       </c>
       <c r="I99">
         <v>241.2</v>
       </c>
       <c r="J99">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>8.0999999999999943</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <f t="shared" si="42"/>
+        <v>2.5530612244897957</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="43"/>
+        <v>2.4612244897959181</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="44"/>
+        <v>1.0373134328358209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5934,30 +8526,42 @@
         <v>51300</v>
       </c>
       <c r="E100">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>256.5</v>
       </c>
       <c r="F100">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1260</v>
       </c>
       <c r="G100">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6.3000000000000114</v>
       </c>
       <c r="H100">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0288808664259927</v>
       </c>
       <c r="I100">
         <v>249.3</v>
       </c>
       <c r="J100">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>8.1000000000000227</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <f t="shared" si="42"/>
+        <v>2.5909090909090908</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="43"/>
+        <v>2.5181818181818181</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="44"/>
+        <v>1.0288808664259927</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5971,30 +8575,42 @@
         <v>52560</v>
       </c>
       <c r="E101">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>262.8</v>
       </c>
       <c r="F101">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1260</v>
       </c>
       <c r="G101">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6.3000000000000114</v>
       </c>
       <c r="H101">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.020979020979021</v>
       </c>
       <c r="I101">
         <v>257.39999999999998</v>
       </c>
       <c r="J101">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>8.0999999999999659</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <f t="shared" si="42"/>
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="43"/>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="44"/>
+        <v>1.020979020979021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6008,30 +8624,42 @@
         <v>54000</v>
       </c>
       <c r="E102">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>270</v>
       </c>
       <c r="F102">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1440</v>
       </c>
       <c r="G102">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>7.1999999999999886</v>
       </c>
       <c r="H102">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0135135135135136</v>
       </c>
       <c r="I102">
         <v>266.39999999999998</v>
       </c>
       <c r="J102">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <f t="shared" si="42"/>
+        <v>2.6732673267326734</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="43"/>
+        <v>2.6376237623762373</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="44"/>
+        <v>1.0135135135135136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6045,30 +8673,42 @@
         <v>55440</v>
       </c>
       <c r="E103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>277.2</v>
       </c>
       <c r="F103">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1440</v>
       </c>
       <c r="G103">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>7.1999999999999886</v>
       </c>
       <c r="H103">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0065359477124183</v>
       </c>
       <c r="I103">
         <v>275.39999999999998</v>
       </c>
       <c r="J103">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <f t="shared" si="42"/>
+        <v>2.7176470588235291</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="43"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="44"/>
+        <v>1.0065359477124183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6082,30 +8722,42 @@
         <v>57240</v>
       </c>
       <c r="E104">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>286.2</v>
       </c>
       <c r="F104">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1800</v>
       </c>
       <c r="G104">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="H104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0031545741324921</v>
       </c>
       <c r="I104">
         <v>285.3</v>
       </c>
       <c r="J104">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.9000000000000341</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <f t="shared" si="42"/>
+        <v>2.7786407766990289</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="43"/>
+        <v>2.7699029126213595</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="44"/>
+        <v>1.0031545741324919</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6119,30 +8771,42 @@
         <v>59040</v>
       </c>
       <c r="E105">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>295.2</v>
       </c>
       <c r="F105">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1800</v>
       </c>
       <c r="G105">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="H105">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I105">
         <v>295.2</v>
       </c>
       <c r="J105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.8999999999999773</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <f t="shared" si="42"/>
+        <v>2.8384615384615381</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="43"/>
+        <v>2.8384615384615381</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6156,30 +8820,42 @@
         <v>61020</v>
       </c>
       <c r="E106">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>305.10000000000002</v>
       </c>
       <c r="F106">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1980</v>
       </c>
       <c r="G106">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9.9000000000000341</v>
       </c>
       <c r="H106">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I106">
         <v>305.10000000000002</v>
       </c>
       <c r="J106">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.9000000000000341</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <f t="shared" si="42"/>
+        <v>2.9057142857142861</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="43"/>
+        <v>2.9057142857142861</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6193,30 +8869,42 @@
         <v>63000</v>
       </c>
       <c r="E107">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>315</v>
       </c>
       <c r="F107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1980</v>
       </c>
       <c r="G107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9.8999999999999773</v>
       </c>
       <c r="H107">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I107">
         <v>315</v>
       </c>
       <c r="J107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.8999999999999773</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <f t="shared" si="42"/>
+        <v>2.9716981132075473</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="43"/>
+        <v>2.9716981132075473</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6230,30 +8918,42 @@
         <v>64980</v>
       </c>
       <c r="E108">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>324.89999999999998</v>
       </c>
       <c r="F108">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1980</v>
       </c>
       <c r="G108">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9.8999999999999773</v>
       </c>
       <c r="H108">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I108">
         <v>324.89999999999998</v>
       </c>
       <c r="J108">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.8999999999999773</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <f t="shared" si="42"/>
+        <v>3.0364485981308409</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="43"/>
+        <v>3.0364485981308409</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6267,30 +8967,42 @@
         <v>66960</v>
       </c>
       <c r="E109">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>334.8</v>
       </c>
       <c r="F109">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1980</v>
       </c>
       <c r="G109">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9.9000000000000341</v>
       </c>
       <c r="H109">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I109">
         <v>334.8</v>
       </c>
       <c r="J109">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.9000000000000341</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <f t="shared" si="42"/>
+        <v>3.1</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="43"/>
+        <v>3.1</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6304,30 +9016,42 @@
         <v>68940</v>
       </c>
       <c r="E110">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>344.7</v>
       </c>
       <c r="F110">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1980</v>
       </c>
       <c r="G110">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9.8999999999999773</v>
       </c>
       <c r="H110">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I110">
         <v>344.7</v>
       </c>
       <c r="J110">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.8999999999999773</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <f t="shared" si="42"/>
+        <v>3.1623853211009174</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="43"/>
+        <v>3.1623853211009174</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6341,27 +9065,39 @@
         <v>70920</v>
       </c>
       <c r="E111">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>354.6</v>
       </c>
       <c r="F111">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1980</v>
       </c>
       <c r="G111">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9.9000000000000341</v>
       </c>
       <c r="H111">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I111">
         <v>354.6</v>
       </c>
       <c r="J111">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.9000000000000341</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="42"/>
+        <v>3.2236363636363636</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="43"/>
+        <v>3.2236363636363636</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="44"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
